--- a/output/sp-lm.xlsx
+++ b/output/sp-lm.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyrti/Documents/GitHub/Photorespiration-temperate-species/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9290EA86-DF70-0141-8106-2C68B98F6963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DAF1BE-C5FB-5C45-9735-12237E120FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{48BC3931-DA32-E84C-9E48-9076531BDB95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>sp                      t</t>
   </si>
@@ -114,15 +114,19 @@
   </si>
   <si>
     <t>Phi</t>
+  </si>
+  <si>
+    <t>intercept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,11 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38839DBF-D0A1-4C45-8016-6D8D8BB1D5E4}">
-  <dimension ref="B6:Q38"/>
+  <dimension ref="B6:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="172" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="I12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,7 +933,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>10</v>
       </c>
@@ -950,7 +956,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>11</v>
       </c>
@@ -973,7 +979,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>12</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>13</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>14</v>
       </c>
@@ -1042,7 +1048,62 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="4">
+        <v>-6.3</v>
+      </c>
+      <c r="P23" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>-1.77</v>
+      </c>
+      <c r="R23" s="1">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="U23" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="V23" s="1">
+        <v>3.5599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -1061,8 +1122,35 @@
       <c r="H24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4">
+        <v>-8.25</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5.83</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>-1.42</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U24" s="5">
+        <v>3.13</v>
+      </c>
+      <c r="V24" s="1">
+        <v>5.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1084,8 +1172,35 @@
       <c r="H25">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="4">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="P25" s="4">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="R25" s="1">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="U25" s="5">
+        <v>-0.505</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -1107,8 +1222,35 @@
       <c r="H26">
         <v>1.89E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="4">
+        <v>-3.13</v>
+      </c>
+      <c r="P26" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>-0.748</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="U26" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="V26" s="1">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>5</v>
       </c>
@@ -1130,8 +1272,35 @@
       <c r="H27">
         <v>9.5200000000000005E-4</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="4">
+        <v>-18.8</v>
+      </c>
+      <c r="P27" s="4">
+        <v>4.72</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>-3.98</v>
+      </c>
+      <c r="R27" s="1">
+        <v>9.5799999999999998E-4</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="U27" s="5">
+        <v>5.77</v>
+      </c>
+      <c r="V27" s="1">
+        <v>2.2500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>7</v>
       </c>
@@ -1153,8 +1322,35 @@
       <c r="H28">
         <v>8.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="P28" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>9</v>
       </c>
@@ -1176,8 +1372,35 @@
       <c r="H29">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="4">
+        <v>-1.21</v>
+      </c>
+      <c r="P29" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="T29" s="1">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="U29" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>11</v>
       </c>
@@ -1200,7 +1423,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>13</v>
       </c>
@@ -1223,7 +1446,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
@@ -1413,8 +1636,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:H38">
-    <sortCondition ref="D25:D38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N23:V29">
+    <sortCondition ref="N23:N29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
